--- a/Experiment Data.xlsx
+++ b/Experiment Data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="PD-1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PD-2" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PD-3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="351">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -207,6 +208,15 @@
   </si>
   <si>
     <t xml:space="preserve">Total Retrieved Relevant Outcomes (TP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Description 1 (106 words)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Description 2 (107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Description 3 (124)</t>
   </si>
   <si>
     <t xml:space="preserve">Artifact Type – Problem Description (Online Project Management System)</t>
@@ -1525,14 +1535,24 @@
   <si>
     <t xml:space="preserve">S[7]. Reject [13]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Precision (%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2 (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1733,7 +1753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1790,10 +1810,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1847,6 +1863,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1946,6 +1966,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2023,10 +2059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:L121"/>
+  <dimension ref="A7:P141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6160,8 +6196,406 @@
         <v>#REF!</v>
       </c>
     </row>
+    <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+    </row>
+    <row r="135" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L135" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M135" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N135" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O135" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P135" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="24" t="n">
+        <f aca="false">('PD-1'!D132)</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="24" t="str">
+        <f aca="false">('PD-1'!E132)</f>
+        <v>S4, education project [9, 10]</v>
+      </c>
+      <c r="G136" s="24" t="str">
+        <f aca="false">('PD-1'!F132)</f>
+        <v>S4, education project [9, 10]</v>
+      </c>
+      <c r="H136" s="25" t="n">
+        <f aca="false">('PD-2'!D131)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="25" t="str">
+        <f aca="false">('PD-2'!E131)</f>
+        <v>(S[4], trips [1]), (S[5], trip [1])</v>
+      </c>
+      <c r="J136" s="25" t="str">
+        <f aca="false">('PD-2'!F131)</f>
+        <v>(S[4], trips [1]), (S[5], trip [1])</v>
+      </c>
+      <c r="K136" s="26" t="n">
+        <f aca="false">('PD-3'!D129)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="26" t="n">
+        <f aca="false">('PD-3'!E129)</f>
+        <v>9</v>
+      </c>
+      <c r="M136" s="26" t="n">
+        <f aca="false">('PD-3'!F129)</f>
+        <v>6</v>
+      </c>
+      <c r="N136" s="27" t="n">
+        <f aca="false">(E136+H136+K136)</f>
+        <v>0</v>
+      </c>
+      <c r="O136" s="27" t="e">
+        <f aca="false">(F136+I136+L136)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P136" s="27" t="e">
+        <f aca="false">(G136+J136+M136)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="24" t="n">
+        <f aca="false">('PD-1'!D133)</f>
+        <v>0</v>
+      </c>
+      <c r="F137" s="24" t="str">
+        <f aca="false">('PD-1'!E133)</f>
+        <v>S4, research project [7, 8]</v>
+      </c>
+      <c r="G137" s="24" t="str">
+        <f aca="false">('PD-1'!F133)</f>
+        <v>S4, research project [7, 8]</v>
+      </c>
+      <c r="H137" s="25" t="n">
+        <f aca="false">('PD-2'!D132)</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="25" t="str">
+        <f aca="false">('PD-2'!E132)</f>
+        <v>(S[5], seats [10]), [S[6], seats [4])</v>
+      </c>
+      <c r="J137" s="25" t="str">
+        <f aca="false">('PD-2'!F132)</f>
+        <v>(S[5], seats [10]), [S[6], seats [4])</v>
+      </c>
+      <c r="K137" s="26" t="str">
+        <f aca="false">('PD-3'!D130)</f>
+        <v>Botr2</v>
+      </c>
+      <c r="L137" s="26" t="str">
+        <f aca="false">('PD-3'!E130)</f>
+        <v>Person – attributes – name: String</v>
+      </c>
+      <c r="M137" s="26" t="str">
+        <f aca="false">('PD-3'!F130)</f>
+        <v>Person – attributes – name: String</v>
+      </c>
+      <c r="N137" s="27" t="e">
+        <f aca="false">(E137+H137+K137)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O137" s="27" t="e">
+        <f aca="false">(F137+I137+L137)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P137" s="27" t="e">
+        <f aca="false">(G137+J137+M137)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="24" t="n">
+        <f aca="false">('PD-1'!D134)</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="24" t="str">
+        <f aca="false">('PD-1'!E134)</f>
+        <v>S4, rationale </v>
+      </c>
+      <c r="G138" s="24" t="str">
+        <f aca="false">('PD-1'!F134)</f>
+        <v>S4, rationale </v>
+      </c>
+      <c r="H138" s="25" t="n">
+        <f aca="false">('PD-2'!D133)</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="25" t="str">
+        <f aca="false">('PD-2'!E133)</f>
+        <v>(S[5], departure time [11,12])</v>
+      </c>
+      <c r="J138" s="25" t="str">
+        <f aca="false">('PD-2'!F133)</f>
+        <v>(S[5], departure time [11,12])</v>
+      </c>
+      <c r="K138" s="26" t="n">
+        <f aca="false">('PD-3'!D131)</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="26" t="str">
+        <f aca="false">('PD-3'!E131)</f>
+        <v>Person (1) – association – (0..2) UserRole</v>
+      </c>
+      <c r="M138" s="26" t="str">
+        <f aca="false">('PD-3'!F131)</f>
+        <v>Person (1) – association – (0..1) UserRole</v>
+      </c>
+      <c r="N138" s="27" t="n">
+        <f aca="false">(E138+H138+K138)</f>
+        <v>0</v>
+      </c>
+      <c r="O138" s="27" t="e">
+        <f aca="false">(F138+I138+L138)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P138" s="27" t="e">
+        <f aca="false">(G138+J138+M138)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="24" t="e">
+        <f aca="false">E138/E137</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F139" s="24" t="e">
+        <f aca="false">F138/F137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G139" s="24" t="e">
+        <f aca="false">G138/G137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H139" s="25" t="e">
+        <f aca="false">H138/H137</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="25" t="e">
+        <f aca="false">I138/I137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J139" s="25" t="e">
+        <f aca="false">J138/J137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K139" s="26" t="e">
+        <f aca="false">K138/K137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L139" s="26" t="e">
+        <f aca="false">L138/L137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M139" s="26" t="e">
+        <f aca="false">M138/M137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N139" s="27" t="e">
+        <f aca="false">N138/N137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O139" s="27" t="e">
+        <f aca="false">O138/O137</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P139" s="27" t="e">
+        <f aca="false">P138/P137</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="24" t="e">
+        <f aca="false">E138/E136</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="24" t="e">
+        <f aca="false">F138/F136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G140" s="24" t="e">
+        <f aca="false">G138/G136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H140" s="25" t="e">
+        <f aca="false">H138/H136</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" s="25" t="e">
+        <f aca="false">I138/I136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J140" s="25" t="e">
+        <f aca="false">J138/J136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K140" s="26" t="e">
+        <f aca="false">K138/K136</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L140" s="26" t="e">
+        <f aca="false">L138/L136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M140" s="26" t="e">
+        <f aca="false">M138/M136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N140" s="27" t="e">
+        <f aca="false">N138/N136</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O140" s="27" t="e">
+        <f aca="false">O138/O136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P140" s="27" t="e">
+        <f aca="false">P138/P136</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="24" t="e">
+        <f aca="false">((2*2+1)*E139*E140/(2*2*E139+E140))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="24" t="e">
+        <f aca="false">((2*2+1)*F139*F140/(2*2*F139+F140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G141" s="24" t="e">
+        <f aca="false">((2*2+1)*G139*G140/(2*2*G139+G140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H141" s="25" t="e">
+        <f aca="false">((2*2+1)*H139*H140/(2*2*H139+H140))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" s="25" t="e">
+        <f aca="false">((2*2+1)*I139*I140/(2*2*I139+I140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J141" s="25" t="e">
+        <f aca="false">((2*2+1)*J139*J140/(2*2*J139+J140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K141" s="26" t="e">
+        <f aca="false">((2*2+1)*K139*K140/(2*2*K139+K140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L141" s="26" t="e">
+        <f aca="false">((2*2+1)*L139*L140/(2*2*L139+L140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M141" s="26" t="e">
+        <f aca="false">((2*2+1)*M139*M140/(2*2*M139+M140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N141" s="27" t="e">
+        <f aca="false">((2*2+1)*N139*N140/(2*2*N139+N140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O141" s="27" t="e">
+        <f aca="false">((2*2+1)*O139*O140/(2*2*O139+O140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P141" s="27" t="e">
+        <f aca="false">((2*2+1)*P139*P140/(2*2*P139+P140))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="38">
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="L7:L24"/>
     <mergeCell ref="B8:K8"/>
@@ -6189,6 +6623,17 @@
     <mergeCell ref="A105:A110"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B134:D135"/>
+    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6208,410 +6653,410 @@
   <dimension ref="B15:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="14" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="20.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="14" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="20.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="28" width="11.52"/>
   </cols>
   <sheetData>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="n">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="n">
         <f aca="false">('PD-1'!D13)</f>
         <v>32</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="24" t="n">
         <f aca="false">('PD-1'!E13)</f>
         <v>69</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="24" t="n">
         <f aca="false">('PD-1'!F13)</f>
         <v>22</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="25" t="n">
         <f aca="false">('PD-2'!D12)</f>
         <v>60</v>
       </c>
-      <c r="I17" s="26" t="n">
+      <c r="I17" s="25" t="n">
         <f aca="false">('PD-2'!E12)</f>
         <v>80</v>
       </c>
-      <c r="J17" s="26" t="n">
+      <c r="J17" s="25" t="n">
         <f aca="false">('PD-2'!F12)</f>
         <v>41</v>
       </c>
-      <c r="K17" s="27" t="n">
+      <c r="K17" s="26" t="n">
         <f aca="false">('PD-3'!D10)</f>
         <v>32</v>
       </c>
-      <c r="L17" s="27" t="n">
+      <c r="L17" s="26" t="n">
         <f aca="false">('PD-3'!E10)</f>
         <v>60</v>
       </c>
-      <c r="M17" s="27" t="n">
+      <c r="M17" s="26" t="n">
         <f aca="false">('PD-3'!F10)</f>
         <v>31</v>
       </c>
-      <c r="N17" s="28" t="n">
+      <c r="N17" s="27" t="n">
         <f aca="false">(E17+H17+K17)</f>
         <v>124</v>
       </c>
-      <c r="O17" s="28" t="n">
+      <c r="O17" s="27" t="n">
         <f aca="false">(F17+I17+L17)</f>
         <v>209</v>
       </c>
-      <c r="P17" s="28" t="n">
+      <c r="P17" s="27" t="n">
         <f aca="false">(G17+J17+M17)</f>
         <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="n">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="n">
         <f aca="false">('PD-1'!D14)</f>
         <v>30</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="24" t="n">
         <f aca="false">('PD-1'!E14)</f>
         <v>66</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="24" t="n">
         <f aca="false">('PD-1'!F14)</f>
         <v>20.5</v>
       </c>
-      <c r="H18" s="26" t="n">
+      <c r="H18" s="25" t="n">
         <f aca="false">('PD-2'!D13)</f>
         <v>55</v>
       </c>
-      <c r="I18" s="26" t="n">
+      <c r="I18" s="25" t="n">
         <f aca="false">('PD-2'!E13)</f>
         <v>71.5</v>
       </c>
-      <c r="J18" s="26" t="n">
+      <c r="J18" s="25" t="n">
         <f aca="false">('PD-2'!F13)</f>
         <v>39</v>
       </c>
-      <c r="K18" s="27" t="n">
+      <c r="K18" s="26" t="n">
         <f aca="false">('PD-3'!D11)</f>
         <v>31</v>
       </c>
-      <c r="L18" s="27" t="n">
+      <c r="L18" s="26" t="n">
         <f aca="false">('PD-3'!E11)</f>
         <v>53</v>
       </c>
-      <c r="M18" s="27" t="n">
+      <c r="M18" s="26" t="n">
         <f aca="false">('PD-3'!F11)</f>
         <v>26</v>
       </c>
-      <c r="N18" s="28" t="n">
+      <c r="N18" s="27" t="n">
         <f aca="false">(E18+H18+K18)</f>
         <v>116</v>
       </c>
-      <c r="O18" s="28" t="n">
+      <c r="O18" s="27" t="n">
         <f aca="false">(F18+I18+L18)</f>
         <v>190.5</v>
       </c>
-      <c r="P18" s="28" t="n">
+      <c r="P18" s="27" t="n">
         <f aca="false">(G18+J18+M18)</f>
         <v>85.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25" t="n">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="n">
         <f aca="false">('PD-1'!D15)</f>
         <v>29</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="24" t="n">
         <f aca="false">('PD-1'!E15)</f>
         <v>63</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="24" t="n">
         <f aca="false">('PD-1'!F15)</f>
         <v>20.5</v>
       </c>
-      <c r="H19" s="26" t="n">
+      <c r="H19" s="25" t="n">
         <f aca="false">('PD-2'!D14)</f>
         <v>52</v>
       </c>
-      <c r="I19" s="26" t="n">
+      <c r="I19" s="25" t="n">
         <f aca="false">('PD-2'!E14)</f>
         <v>67</v>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="J19" s="25" t="n">
         <f aca="false">('PD-2'!F14)</f>
         <v>37</v>
       </c>
-      <c r="K19" s="27" t="n">
+      <c r="K19" s="26" t="n">
         <f aca="false">('PD-3'!D12)</f>
         <v>28</v>
       </c>
-      <c r="L19" s="27" t="n">
+      <c r="L19" s="26" t="n">
         <f aca="false">('PD-3'!E12)</f>
         <v>48</v>
       </c>
-      <c r="M19" s="27" t="n">
+      <c r="M19" s="26" t="n">
         <f aca="false">('PD-3'!F12)</f>
         <v>26</v>
       </c>
-      <c r="N19" s="28" t="n">
+      <c r="N19" s="27" t="n">
         <f aca="false">(E19+H19+K19)</f>
         <v>109</v>
       </c>
-      <c r="O19" s="28" t="n">
+      <c r="O19" s="27" t="n">
         <f aca="false">(F19+I19+L19)</f>
         <v>178</v>
       </c>
-      <c r="P19" s="28" t="n">
+      <c r="P19" s="27" t="n">
         <f aca="false">(G19+J19+M19)</f>
         <v>83.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="n">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="n">
         <f aca="false">E19/E18</f>
         <v>0.966666666666667</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="24" t="n">
         <f aca="false">F19/F18</f>
         <v>0.954545454545455</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="24" t="n">
         <f aca="false">G19/G18</f>
         <v>1</v>
       </c>
-      <c r="H20" s="26" t="n">
+      <c r="H20" s="25" t="n">
         <f aca="false">H19/H18</f>
         <v>0.945454545454545</v>
       </c>
-      <c r="I20" s="26" t="n">
+      <c r="I20" s="25" t="n">
         <f aca="false">I19/I18</f>
         <v>0.937062937062937</v>
       </c>
-      <c r="J20" s="26" t="n">
+      <c r="J20" s="25" t="n">
         <f aca="false">J19/J18</f>
         <v>0.948717948717949</v>
       </c>
-      <c r="K20" s="27" t="n">
+      <c r="K20" s="26" t="n">
         <f aca="false">K19/K18</f>
         <v>0.903225806451613</v>
       </c>
-      <c r="L20" s="27" t="n">
+      <c r="L20" s="26" t="n">
         <f aca="false">L19/L18</f>
         <v>0.905660377358491</v>
       </c>
-      <c r="M20" s="27" t="n">
+      <c r="M20" s="26" t="n">
         <f aca="false">M19/M18</f>
         <v>1</v>
       </c>
-      <c r="N20" s="28" t="n">
+      <c r="N20" s="27" t="n">
         <f aca="false">N19/N18</f>
         <v>0.939655172413793</v>
       </c>
-      <c r="O20" s="28" t="n">
+      <c r="O20" s="27" t="n">
         <f aca="false">O19/O18</f>
         <v>0.934383202099738</v>
       </c>
-      <c r="P20" s="28" t="n">
+      <c r="P20" s="27" t="n">
         <f aca="false">P19/P18</f>
         <v>0.976608187134503</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="n">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="n">
         <f aca="false">E19/E17</f>
         <v>0.90625</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="24" t="n">
         <f aca="false">F19/F17</f>
         <v>0.91304347826087</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="24" t="n">
         <f aca="false">G19/G17</f>
         <v>0.931818181818182</v>
       </c>
-      <c r="H21" s="26" t="n">
+      <c r="H21" s="25" t="n">
         <f aca="false">H19/H17</f>
         <v>0.866666666666667</v>
       </c>
-      <c r="I21" s="26" t="n">
+      <c r="I21" s="25" t="n">
         <f aca="false">I19/I17</f>
         <v>0.8375</v>
       </c>
-      <c r="J21" s="26" t="n">
+      <c r="J21" s="25" t="n">
         <f aca="false">J19/J17</f>
         <v>0.902439024390244</v>
       </c>
-      <c r="K21" s="27" t="n">
+      <c r="K21" s="26" t="n">
         <f aca="false">K19/K17</f>
         <v>0.875</v>
       </c>
-      <c r="L21" s="27" t="n">
+      <c r="L21" s="26" t="n">
         <f aca="false">L19/L17</f>
         <v>0.8</v>
       </c>
-      <c r="M21" s="27" t="n">
+      <c r="M21" s="26" t="n">
         <f aca="false">M19/M17</f>
         <v>0.838709677419355</v>
       </c>
-      <c r="N21" s="28" t="n">
+      <c r="N21" s="27" t="n">
         <f aca="false">N19/N17</f>
         <v>0.879032258064516</v>
       </c>
-      <c r="O21" s="28" t="n">
+      <c r="O21" s="27" t="n">
         <f aca="false">O19/O17</f>
         <v>0.851674641148325</v>
       </c>
-      <c r="P21" s="28" t="n">
+      <c r="P21" s="27" t="n">
         <f aca="false">P19/P17</f>
         <v>0.888297872340426</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25" t="n">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="n">
         <f aca="false">((2*2+1)*E20*E21/(2*2*E20+E21))</f>
         <v>0.917721518987342</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="24" t="n">
         <f aca="false">((2*2+1)*F20*F21/(2*2*F20+F21))</f>
         <v>0.921052631578947</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="24" t="n">
         <f aca="false">((2*2+1)*G20*G21/(2*2*G20+G21))</f>
         <v>0.944700460829493</v>
       </c>
-      <c r="H22" s="26" t="n">
+      <c r="H22" s="25" t="n">
         <f aca="false">((2*2+1)*H20*H21/(2*2*H20+H21))</f>
         <v>0.88135593220339</v>
       </c>
-      <c r="I22" s="26" t="n">
+      <c r="I22" s="25" t="n">
         <f aca="false">((2*2+1)*I20*I21/(2*2*I20+I21))</f>
         <v>0.855683269476373</v>
       </c>
-      <c r="J22" s="26" t="n">
+      <c r="J22" s="25" t="n">
         <f aca="false">((2*2+1)*J20*J21/(2*2*J20+J21))</f>
         <v>0.911330049261084</v>
       </c>
-      <c r="K22" s="27" t="n">
+      <c r="K22" s="26" t="n">
         <f aca="false">((2*2+1)*K20*K21/(2*2*K20+K21))</f>
         <v>0.880503144654088</v>
       </c>
-      <c r="L22" s="27" t="n">
+      <c r="L22" s="26" t="n">
         <f aca="false">((2*2+1)*L20*L21/(2*2*L20+L21))</f>
         <v>0.819112627986348</v>
       </c>
-      <c r="M22" s="27" t="n">
+      <c r="M22" s="26" t="n">
         <f aca="false">((2*2+1)*M20*M21/(2*2*M20+M21))</f>
         <v>0.866666666666667</v>
       </c>
-      <c r="N22" s="28" t="n">
+      <c r="N22" s="27" t="n">
         <f aca="false">((2*2+1)*N20*N21/(2*2*N20+N21))</f>
         <v>0.890522875816994</v>
       </c>
-      <c r="O22" s="28" t="n">
+      <c r="O22" s="27" t="n">
         <f aca="false">((2*2+1)*O20*O21/(2*2*O20+O21))</f>
         <v>0.867023867510959</v>
       </c>
-      <c r="P22" s="28" t="n">
+      <c r="P22" s="27" t="n">
         <f aca="false">((2*2+1)*P20*P21/(2*2*P20+P21))</f>
         <v>0.90465872156013</v>
       </c>
@@ -6648,7 +7093,7 @@
   <dimension ref="B2:G159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6662,7 +7107,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -6672,7 +7117,7 @@
     </row>
     <row r="3" customFormat="false" ht="48.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -6684,18 +7129,18 @@
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="n">
@@ -6713,7 +7158,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="n">
@@ -6731,7 +7176,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35" t="n">
@@ -6772,39 +7217,39 @@
         <v>0</v>
       </c>
       <c r="C32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="F32" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>47</v>
-      </c>
       <c r="G32" s="38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6812,13 +7257,13 @@
       <c r="C34" s="39"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,13 +7271,13 @@
       <c r="C35" s="39"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,13 +7285,13 @@
       <c r="C36" s="39"/>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,13 +7299,13 @@
       <c r="C37" s="39"/>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,22 +7324,22 @@
     </row>
     <row r="39" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,13 +7347,13 @@
       <c r="C40" s="39"/>
       <c r="D40" s="41"/>
       <c r="E40" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,13 +7361,13 @@
       <c r="C41" s="39"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,13 +7375,13 @@
       <c r="C42" s="39"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,13 +7389,13 @@
       <c r="C43" s="39"/>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,13 +7403,13 @@
       <c r="C44" s="39"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6983,22 +7428,22 @@
     </row>
     <row r="46" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,22 +7462,22 @@
     </row>
     <row r="48" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,22 +7496,22 @@
     </row>
     <row r="50" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7085,22 +7530,22 @@
     </row>
     <row r="52" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,13 +7553,13 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,13 +7567,13 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,13 +7581,13 @@
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,13 +7595,13 @@
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,22 +7620,22 @@
     </row>
     <row r="58" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,22 +7654,22 @@
     </row>
     <row r="60" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,22 +7688,22 @@
     </row>
     <row r="62" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,22 +7722,22 @@
     </row>
     <row r="64" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,22 +7756,22 @@
     </row>
     <row r="66" customFormat="false" ht="25.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C66" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,22 +7790,22 @@
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,13 +7813,13 @@
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
       <c r="E69" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,13 +7827,13 @@
       <c r="C70" s="48"/>
       <c r="D70" s="48"/>
       <c r="E70" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,13 +7841,13 @@
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
       <c r="E71" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,13 +7855,13 @@
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
       <c r="E72" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,13 +7869,13 @@
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
       <c r="E73" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,38 +7894,38 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="48"/>
       <c r="C76" s="45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,22 +7944,22 @@
     </row>
     <row r="78" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7522,13 +7967,13 @@
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,13 +7981,13 @@
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,13 +7995,13 @@
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,13 +8009,13 @@
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,13 +8023,13 @@
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,13 +8037,13 @@
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7606,13 +8051,13 @@
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,13 +8065,13 @@
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G86" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7634,7 +8079,7 @@
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
@@ -7655,22 +8100,22 @@
     </row>
     <row r="89" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D89" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,86 +8134,86 @@
     </row>
     <row r="91" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="39"/>
       <c r="C92" s="45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D92" s="47"/>
       <c r="E92" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="39"/>
       <c r="C93" s="45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D93" s="47"/>
       <c r="E93" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="39"/>
       <c r="C94" s="45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="39"/>
       <c r="C95" s="45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D95" s="47"/>
       <c r="E95" s="42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,70 +8232,70 @@
     </row>
     <row r="97" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="48"/>
       <c r="C98" s="45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D98" s="47"/>
       <c r="E98" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="48"/>
       <c r="C99" s="45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D99" s="47"/>
       <c r="E99" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="48"/>
       <c r="C100" s="45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,22 +8314,22 @@
     </row>
     <row r="102" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,13 +8337,13 @@
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
       <c r="E103" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,13 +8351,13 @@
       <c r="C104" s="48"/>
       <c r="D104" s="48"/>
       <c r="E104" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,13 +8365,13 @@
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
       <c r="E105" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,13 +8379,13 @@
       <c r="C106" s="48"/>
       <c r="D106" s="48"/>
       <c r="E106" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F106" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7948,13 +8393,13 @@
       <c r="C107" s="48"/>
       <c r="D107" s="48"/>
       <c r="E107" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F107" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,13 +8407,13 @@
       <c r="C108" s="48"/>
       <c r="D108" s="48"/>
       <c r="E108" s="42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F108" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7976,13 +8421,13 @@
       <c r="C109" s="48"/>
       <c r="D109" s="48"/>
       <c r="E109" s="42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,13 +8435,13 @@
       <c r="C110" s="48"/>
       <c r="D110" s="48"/>
       <c r="E110" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,13 +8449,13 @@
       <c r="C111" s="48"/>
       <c r="D111" s="48"/>
       <c r="E111" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F111" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,13 +8463,13 @@
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
       <c r="E112" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F112" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8032,7 +8477,7 @@
       <c r="C113" s="48"/>
       <c r="D113" s="48"/>
       <c r="E113" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
@@ -8053,70 +8498,70 @@
     </row>
     <row r="115" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="39"/>
       <c r="C116" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="39"/>
       <c r="C117" s="45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="39"/>
       <c r="C118" s="45" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F118" s="42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8135,22 +8580,22 @@
     </row>
     <row r="120" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8158,13 +8603,13 @@
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,13 +8617,13 @@
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F122" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,13 +8631,13 @@
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F123" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8200,13 +8645,13 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,13 +8659,13 @@
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8228,13 +8673,13 @@
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F126" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8242,13 +8687,13 @@
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F127" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,13 +8701,13 @@
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F128" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8270,13 +8715,13 @@
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F129" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,70 +8740,70 @@
     </row>
     <row r="131" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D131" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F131" s="42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G131" s="42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="39"/>
       <c r="C132" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D132" s="47"/>
       <c r="E132" s="42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F132" s="42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="39"/>
       <c r="C133" s="45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D133" s="47"/>
       <c r="E133" s="42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F133" s="42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="39"/>
       <c r="C134" s="45" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D134" s="47"/>
       <c r="E134" s="42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F134" s="42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G134" s="42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,22 +8822,22 @@
     </row>
     <row r="136" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F136" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,13 +8845,13 @@
       <c r="C137" s="39"/>
       <c r="D137" s="39"/>
       <c r="E137" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F137" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,13 +8859,13 @@
       <c r="C138" s="39"/>
       <c r="D138" s="39"/>
       <c r="E138" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8428,13 +8873,13 @@
       <c r="C139" s="39"/>
       <c r="D139" s="39"/>
       <c r="E139" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G139" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,13 +8887,13 @@
       <c r="C140" s="39"/>
       <c r="D140" s="39"/>
       <c r="E140" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,13 +8901,13 @@
       <c r="C141" s="39"/>
       <c r="D141" s="39"/>
       <c r="E141" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,13 +8915,13 @@
       <c r="C142" s="39"/>
       <c r="D142" s="39"/>
       <c r="E142" s="42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8484,13 +8929,13 @@
       <c r="C143" s="39"/>
       <c r="D143" s="39"/>
       <c r="E143" s="42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G143" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,13 +8943,13 @@
       <c r="C144" s="39"/>
       <c r="D144" s="39"/>
       <c r="E144" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8512,13 +8957,13 @@
       <c r="C145" s="39"/>
       <c r="D145" s="39"/>
       <c r="E145" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F145" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G145" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8526,13 +8971,13 @@
       <c r="C146" s="39"/>
       <c r="D146" s="39"/>
       <c r="E146" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F146" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G146" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,13 +8985,13 @@
       <c r="C147" s="39"/>
       <c r="D147" s="39"/>
       <c r="E147" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G147" s="42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,13 +8999,13 @@
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G148" s="42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,13 +9013,13 @@
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F149" s="42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,13 +9027,13 @@
       <c r="C150" s="39"/>
       <c r="D150" s="39"/>
       <c r="E150" s="42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F150" s="42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G150" s="42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,13 +9041,13 @@
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
       <c r="E151" s="42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F151" s="42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G151" s="42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,7 +9055,7 @@
       <c r="C152" s="39"/>
       <c r="D152" s="39"/>
       <c r="E152" s="42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
@@ -8631,86 +9076,86 @@
     </row>
     <row r="154" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F154" s="42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G154" s="42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="39"/>
       <c r="C155" s="45" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F155" s="42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G155" s="42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="39"/>
       <c r="C156" s="45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F156" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G156" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="39"/>
       <c r="C157" s="45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F157" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G157" s="42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="39"/>
       <c r="C158" s="45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F158" s="42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G158" s="42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,8 +9234,8 @@
   </sheetPr>
   <dimension ref="B3:G192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8804,7 +9249,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -8814,7 +9259,7 @@
     </row>
     <row r="4" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -8829,18 +9274,18 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="n">
@@ -8858,7 +9303,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="n">
@@ -8877,7 +9322,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="n">
@@ -8909,39 +9354,39 @@
         <v>0</v>
       </c>
       <c r="C28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="F28" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>47</v>
-      </c>
       <c r="G28" s="38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,13 +9394,13 @@
       <c r="C30" s="39"/>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8963,13 +9408,13 @@
       <c r="C31" s="39"/>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,13 +9422,13 @@
       <c r="C32" s="39"/>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,13 +9436,13 @@
       <c r="C33" s="39"/>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9005,13 +9450,13 @@
       <c r="C34" s="39"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,38 +9475,38 @@
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="48"/>
       <c r="C37" s="42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9080,54 +9525,54 @@
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="48"/>
       <c r="C40" s="45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D40" s="47"/>
       <c r="E40" s="42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="48"/>
       <c r="C41" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9146,22 +9591,22 @@
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9169,13 +9614,13 @@
       <c r="C44" s="48"/>
       <c r="D44" s="47"/>
       <c r="E44" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,13 +9628,13 @@
       <c r="C45" s="48"/>
       <c r="D45" s="47"/>
       <c r="E45" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,13 +9642,13 @@
       <c r="C46" s="48"/>
       <c r="D46" s="47"/>
       <c r="E46" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,7 +9656,7 @@
       <c r="C47" s="48"/>
       <c r="D47" s="47"/>
       <c r="E47" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="42"/>
@@ -9232,22 +9677,22 @@
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,13 +9700,13 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,13 +9714,13 @@
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,13 +9728,13 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,13 +9742,13 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9311,13 +9756,13 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9325,13 +9770,13 @@
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9350,54 +9795,54 @@
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="48"/>
       <c r="C58" s="45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="48"/>
       <c r="C59" s="45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9416,22 +9861,22 @@
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,13 +9884,13 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,13 +9898,13 @@
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,13 +9912,13 @@
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,7 +9926,7 @@
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="42"/>
@@ -9502,38 +9947,38 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="48"/>
       <c r="C68" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,22 +9997,22 @@
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,13 +10020,13 @@
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,13 +10034,13 @@
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
       <c r="E72" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9603,13 +10048,13 @@
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9617,13 +10062,13 @@
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,13 +10076,13 @@
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,13 +10090,13 @@
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9659,13 +10104,13 @@
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9673,13 +10118,13 @@
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
       <c r="E78" s="42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9687,13 +10132,13 @@
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,13 +10146,13 @@
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9715,7 +10160,7 @@
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="42"/>
@@ -9736,102 +10181,102 @@
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="48"/>
       <c r="C84" s="45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D84" s="47"/>
       <c r="E84" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="48"/>
       <c r="C85" s="45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G85" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="48"/>
       <c r="C86" s="45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D86" s="47"/>
       <c r="E86" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F86" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G86" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="48"/>
       <c r="C87" s="45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D87" s="47"/>
       <c r="E87" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F87" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G87" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="48"/>
       <c r="C88" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9850,22 +10295,22 @@
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9873,13 +10318,13 @@
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
       <c r="E91" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9887,13 +10332,13 @@
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
       <c r="E92" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,13 +10346,13 @@
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
       <c r="E93" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9915,13 +10360,13 @@
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9929,13 +10374,13 @@
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
       <c r="E95" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,13 +10388,13 @@
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9957,13 +10402,13 @@
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,13 +10416,13 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,13 +10430,13 @@
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9999,13 +10444,13 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10013,13 +10458,13 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F101" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10027,13 +10472,13 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10041,7 +10486,7 @@
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -10062,134 +10507,134 @@
     </row>
     <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="48"/>
       <c r="C106" s="45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D106" s="47"/>
       <c r="E106" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F106" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="48"/>
       <c r="C107" s="45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G107" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="48"/>
       <c r="C108" s="45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G108" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="48"/>
       <c r="C109" s="45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G109" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="48"/>
       <c r="C110" s="45" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="48"/>
       <c r="C111" s="45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F111" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G111" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="48"/>
       <c r="C112" s="45" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F112" s="50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G112" s="50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,38 +10653,38 @@
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C114" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F114" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="48"/>
       <c r="C115" s="48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10247,13 +10692,13 @@
       <c r="C116" s="48"/>
       <c r="D116" s="47"/>
       <c r="E116" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,13 +10706,13 @@
       <c r="C117" s="48"/>
       <c r="D117" s="47"/>
       <c r="E117" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10275,13 +10720,13 @@
       <c r="C118" s="48"/>
       <c r="D118" s="47"/>
       <c r="E118" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F118" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,13 +10734,13 @@
       <c r="C119" s="48"/>
       <c r="D119" s="47"/>
       <c r="E119" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,13 +10748,13 @@
       <c r="C120" s="48"/>
       <c r="D120" s="47"/>
       <c r="E120" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,13 +10762,13 @@
       <c r="C121" s="48"/>
       <c r="D121" s="47"/>
       <c r="E121" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,13 +10776,13 @@
       <c r="C122" s="48"/>
       <c r="D122" s="47"/>
       <c r="E122" s="42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F122" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10345,13 +10790,13 @@
       <c r="C123" s="48"/>
       <c r="D123" s="47"/>
       <c r="E123" s="42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F123" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10359,13 +10804,13 @@
       <c r="C124" s="48"/>
       <c r="D124" s="47"/>
       <c r="E124" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,13 +10818,13 @@
       <c r="C125" s="48"/>
       <c r="D125" s="47"/>
       <c r="E125" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,13 +10832,13 @@
       <c r="C126" s="48"/>
       <c r="D126" s="47"/>
       <c r="E126" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F126" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10401,13 +10846,13 @@
       <c r="C127" s="48"/>
       <c r="D127" s="47"/>
       <c r="E127" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F127" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +10860,7 @@
       <c r="C128" s="48"/>
       <c r="D128" s="47"/>
       <c r="E128" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F128" s="45"/>
       <c r="G128" s="45"/>
@@ -10436,70 +10881,70 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D130" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F130" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G130" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="48"/>
       <c r="C131" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D131" s="47"/>
       <c r="E131" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F131" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G131" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="48"/>
       <c r="C132" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D132" s="47"/>
       <c r="E132" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F132" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="48"/>
       <c r="C133" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D133" s="47"/>
       <c r="E133" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F133" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G133" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10518,22 +10963,22 @@
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F135" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,13 +10986,13 @@
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F136" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10555,13 +11000,13 @@
       <c r="C137" s="39"/>
       <c r="D137" s="39"/>
       <c r="E137" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F137" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10569,13 +11014,13 @@
       <c r="C138" s="39"/>
       <c r="D138" s="39"/>
       <c r="E138" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10583,13 +11028,13 @@
       <c r="C139" s="39"/>
       <c r="D139" s="39"/>
       <c r="E139" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G139" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10597,13 +11042,13 @@
       <c r="C140" s="39"/>
       <c r="D140" s="39"/>
       <c r="E140" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,13 +11056,13 @@
       <c r="C141" s="39"/>
       <c r="D141" s="39"/>
       <c r="E141" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10625,13 +11070,13 @@
       <c r="C142" s="39"/>
       <c r="D142" s="39"/>
       <c r="E142" s="42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10639,13 +11084,13 @@
       <c r="C143" s="39"/>
       <c r="D143" s="39"/>
       <c r="E143" s="42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G143" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,13 +11098,13 @@
       <c r="C144" s="39"/>
       <c r="D144" s="39"/>
       <c r="E144" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,13 +11112,13 @@
       <c r="C145" s="39"/>
       <c r="D145" s="39"/>
       <c r="E145" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F145" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G145" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,13 +11126,13 @@
       <c r="C146" s="39"/>
       <c r="D146" s="39"/>
       <c r="E146" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F146" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G146" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,13 +11140,13 @@
       <c r="C147" s="39"/>
       <c r="D147" s="39"/>
       <c r="E147" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G147" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10709,13 +11154,13 @@
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G148" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10723,13 +11168,13 @@
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F149" s="42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10737,13 +11182,13 @@
       <c r="C150" s="39"/>
       <c r="D150" s="39"/>
       <c r="E150" s="42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F150" s="42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G150" s="42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,13 +11196,13 @@
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
       <c r="E151" s="42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F151" s="42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G151" s="42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,7 +11210,7 @@
       <c r="C152" s="39"/>
       <c r="D152" s="39"/>
       <c r="E152" s="42" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
@@ -10786,118 +11231,118 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F154" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G154" s="42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="48"/>
       <c r="C155" s="45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F155" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="48"/>
       <c r="C156" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F156" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G156" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="48"/>
       <c r="C157" s="45" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F157" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G157" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="48"/>
       <c r="C158" s="45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F158" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G158" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="48"/>
       <c r="C159" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D159" s="47"/>
       <c r="E159" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F159" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G159" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="48"/>
       <c r="C160" s="45" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D160" s="47"/>
       <c r="E160" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F160" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G160" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,70 +11361,70 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D162" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F162" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="48"/>
       <c r="C163" s="42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F163" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G163" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="48"/>
       <c r="C164" s="42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D164" s="47"/>
       <c r="E164" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F164" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G164" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="48"/>
       <c r="C165" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D165" s="47"/>
       <c r="E165" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F165" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G165" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10998,22 +11443,22 @@
     </row>
     <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F167" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G167" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,13 +11466,13 @@
       <c r="C168" s="48"/>
       <c r="D168" s="47"/>
       <c r="E168" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F168" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G168" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,13 +11480,13 @@
       <c r="C169" s="48"/>
       <c r="D169" s="47"/>
       <c r="E169" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F169" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,13 +11494,13 @@
       <c r="C170" s="48"/>
       <c r="D170" s="47"/>
       <c r="E170" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F170" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11063,13 +11508,13 @@
       <c r="C171" s="48"/>
       <c r="D171" s="47"/>
       <c r="E171" s="42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F171" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,13 +11522,13 @@
       <c r="C172" s="48"/>
       <c r="D172" s="47"/>
       <c r="E172" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F172" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,13 +11536,13 @@
       <c r="C173" s="48"/>
       <c r="D173" s="47"/>
       <c r="E173" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F173" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,13 +11550,13 @@
       <c r="C174" s="48"/>
       <c r="D174" s="47"/>
       <c r="E174" s="42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F174" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,13 +11564,13 @@
       <c r="C175" s="48"/>
       <c r="D175" s="47"/>
       <c r="E175" s="42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F175" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,13 +11578,13 @@
       <c r="C176" s="48"/>
       <c r="D176" s="47"/>
       <c r="E176" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F176" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11147,13 +11592,13 @@
       <c r="C177" s="48"/>
       <c r="D177" s="47"/>
       <c r="E177" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F177" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11161,13 +11606,13 @@
       <c r="C178" s="48"/>
       <c r="D178" s="47"/>
       <c r="E178" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F178" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G178" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11175,13 +11620,13 @@
       <c r="C179" s="48"/>
       <c r="D179" s="47"/>
       <c r="E179" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F179" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G179" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,13 +11634,13 @@
       <c r="C180" s="48"/>
       <c r="D180" s="47"/>
       <c r="E180" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F180" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G180" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11203,13 +11648,13 @@
       <c r="C181" s="48"/>
       <c r="D181" s="47"/>
       <c r="E181" s="42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F181" s="42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G181" s="42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11217,13 +11662,13 @@
       <c r="C182" s="48"/>
       <c r="D182" s="47"/>
       <c r="E182" s="50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F182" s="42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11231,13 +11676,13 @@
       <c r="C183" s="48"/>
       <c r="D183" s="47"/>
       <c r="E183" s="42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F183" s="50" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G183" s="50" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11245,13 +11690,13 @@
       <c r="C184" s="48"/>
       <c r="D184" s="47"/>
       <c r="E184" s="50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F184" s="50" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G184" s="50" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11259,7 +11704,7 @@
       <c r="C185" s="48"/>
       <c r="D185" s="47"/>
       <c r="E185" s="50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
@@ -11280,86 +11725,86 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F187" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="52"/>
       <c r="C188" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D188" s="47"/>
       <c r="E188" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F188" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G188" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="52"/>
       <c r="C189" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D189" s="47"/>
       <c r="E189" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F189" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G189" s="50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="52"/>
       <c r="C190" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D190" s="47"/>
       <c r="E190" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F190" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G190" s="50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="52"/>
       <c r="C191" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D191" s="47"/>
       <c r="E191" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F191" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G191" s="50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11450,7 +11895,7 @@
   <dimension ref="B3:G152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11464,7 +11909,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -11474,7 +11919,7 @@
     </row>
     <row r="4" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -11489,18 +11934,18 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35" t="n">
@@ -11518,7 +11963,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35" t="n">
@@ -11537,7 +11982,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="n">
@@ -11569,39 +12014,39 @@
         <v>0</v>
       </c>
       <c r="C18" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="F18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>47</v>
-      </c>
       <c r="G18" s="38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11609,13 +12054,13 @@
       <c r="C20" s="39"/>
       <c r="D20" s="41"/>
       <c r="E20" s="42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11623,13 +12068,13 @@
       <c r="C21" s="39"/>
       <c r="D21" s="41"/>
       <c r="E21" s="42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11637,13 +12082,13 @@
       <c r="C22" s="39"/>
       <c r="D22" s="41"/>
       <c r="E22" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11651,13 +12096,13 @@
       <c r="C23" s="39"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11676,38 +12121,38 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="48"/>
       <c r="C26" s="42" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11726,22 +12171,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11749,13 +12194,13 @@
       <c r="C29" s="39"/>
       <c r="D29" s="47"/>
       <c r="E29" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11763,13 +12208,13 @@
       <c r="C30" s="39"/>
       <c r="D30" s="47"/>
       <c r="E30" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11777,13 +12222,13 @@
       <c r="C31" s="39"/>
       <c r="D31" s="47"/>
       <c r="E31" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11791,13 +12236,13 @@
       <c r="C32" s="39"/>
       <c r="D32" s="47"/>
       <c r="E32" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11816,86 +12261,86 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48"/>
       <c r="C35" s="45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="50" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48"/>
       <c r="C36" s="45" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D36" s="47"/>
       <c r="E36" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="48"/>
       <c r="C37" s="45" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="48"/>
       <c r="C38" s="45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11914,22 +12359,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11937,13 +12382,13 @@
       <c r="C41" s="39"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11951,13 +12396,13 @@
       <c r="C42" s="39"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11965,13 +12410,13 @@
       <c r="C43" s="39"/>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11979,13 +12424,13 @@
       <c r="C44" s="39"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F44" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,13 +12438,13 @@
       <c r="C45" s="39"/>
       <c r="D45" s="41"/>
       <c r="E45" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12018,70 +12463,70 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="48"/>
       <c r="C48" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="48"/>
       <c r="C49" s="45" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="48"/>
       <c r="C50" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D50" s="47"/>
       <c r="E50" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12100,22 +12545,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12123,13 +12568,13 @@
       <c r="C53" s="39"/>
       <c r="D53" s="41"/>
       <c r="E53" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12137,13 +12582,13 @@
       <c r="C54" s="39"/>
       <c r="D54" s="41"/>
       <c r="E54" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F54" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G54" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12151,13 +12596,13 @@
       <c r="C55" s="39"/>
       <c r="D55" s="41"/>
       <c r="E55" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,13 +12610,13 @@
       <c r="C56" s="39"/>
       <c r="D56" s="41"/>
       <c r="E56" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12179,13 +12624,13 @@
       <c r="C57" s="39"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,13 +12638,13 @@
       <c r="C58" s="39"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12207,13 +12652,13 @@
       <c r="C59" s="39"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12221,13 +12666,13 @@
       <c r="C60" s="39"/>
       <c r="D60" s="41"/>
       <c r="E60" s="42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,13 +12680,13 @@
       <c r="C61" s="39"/>
       <c r="D61" s="41"/>
       <c r="E61" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12260,70 +12705,70 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="48"/>
       <c r="C64" s="42" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D64" s="47"/>
       <c r="E64" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="48"/>
       <c r="C65" s="42" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D65" s="47"/>
       <c r="E65" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="48"/>
       <c r="C66" s="42" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,22 +12787,22 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,13 +12810,13 @@
       <c r="C69" s="39"/>
       <c r="D69" s="47"/>
       <c r="E69" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12379,13 +12824,13 @@
       <c r="C70" s="39"/>
       <c r="D70" s="47"/>
       <c r="E70" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12393,13 +12838,13 @@
       <c r="C71" s="39"/>
       <c r="D71" s="47"/>
       <c r="E71" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G71" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12407,13 +12852,13 @@
       <c r="C72" s="39"/>
       <c r="D72" s="47"/>
       <c r="E72" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G72" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12421,13 +12866,13 @@
       <c r="C73" s="39"/>
       <c r="D73" s="47"/>
       <c r="E73" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12435,13 +12880,13 @@
       <c r="C74" s="39"/>
       <c r="D74" s="47"/>
       <c r="E74" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,13 +12894,13 @@
       <c r="C75" s="39"/>
       <c r="D75" s="47"/>
       <c r="E75" s="42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12463,13 +12908,13 @@
       <c r="C76" s="39"/>
       <c r="D76" s="47"/>
       <c r="E76" s="42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,86 +12933,86 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G78" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="48"/>
       <c r="C79" s="45" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="48"/>
       <c r="C80" s="45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="48"/>
       <c r="C81" s="42" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D81" s="47"/>
       <c r="E81" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="48"/>
       <c r="C82" s="42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12586,38 +13031,38 @@
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="48"/>
       <c r="C85" s="42" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12636,22 +13081,22 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12659,13 +13104,13 @@
       <c r="C88" s="39"/>
       <c r="D88" s="47"/>
       <c r="E88" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12673,13 +13118,13 @@
       <c r="C89" s="39"/>
       <c r="D89" s="47"/>
       <c r="E89" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G89" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12687,13 +13132,13 @@
       <c r="C90" s="39"/>
       <c r="D90" s="47"/>
       <c r="E90" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F90" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G90" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12701,13 +13146,13 @@
       <c r="C91" s="39"/>
       <c r="D91" s="47"/>
       <c r="E91" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F91" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G91" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,13 +13160,13 @@
       <c r="C92" s="39"/>
       <c r="D92" s="47"/>
       <c r="E92" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12729,13 +13174,13 @@
       <c r="C93" s="39"/>
       <c r="D93" s="47"/>
       <c r="E93" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12743,13 +13188,13 @@
       <c r="C94" s="39"/>
       <c r="D94" s="47"/>
       <c r="E94" s="42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12757,13 +13202,13 @@
       <c r="C95" s="39"/>
       <c r="D95" s="47"/>
       <c r="E95" s="42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12771,13 +13216,13 @@
       <c r="C96" s="39"/>
       <c r="D96" s="47"/>
       <c r="E96" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12796,70 +13241,70 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F98" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G98" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="48"/>
       <c r="C99" s="45" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D99" s="47"/>
       <c r="E99" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="48"/>
       <c r="C100" s="42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="48"/>
       <c r="C101" s="42" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D101" s="47"/>
       <c r="E101" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F101" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,22 +13323,22 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12901,13 +13346,13 @@
       <c r="C104" s="39"/>
       <c r="D104" s="41"/>
       <c r="E104" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12915,13 +13360,13 @@
       <c r="C105" s="39"/>
       <c r="D105" s="41"/>
       <c r="E105" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F105" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G105" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12929,13 +13374,13 @@
       <c r="C106" s="39"/>
       <c r="D106" s="41"/>
       <c r="E106" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G106" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12943,13 +13388,13 @@
       <c r="C107" s="39"/>
       <c r="D107" s="41"/>
       <c r="E107" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G107" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12957,13 +13402,13 @@
       <c r="C108" s="39"/>
       <c r="D108" s="41"/>
       <c r="E108" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F108" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12971,13 +13416,13 @@
       <c r="C109" s="39"/>
       <c r="D109" s="41"/>
       <c r="E109" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12985,13 +13430,13 @@
       <c r="C110" s="39"/>
       <c r="D110" s="41"/>
       <c r="E110" s="42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12999,13 +13444,13 @@
       <c r="C111" s="39"/>
       <c r="D111" s="41"/>
       <c r="E111" s="42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F111" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13013,13 +13458,13 @@
       <c r="C112" s="39"/>
       <c r="D112" s="41"/>
       <c r="E112" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F112" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,13 +13472,13 @@
       <c r="C113" s="39"/>
       <c r="D113" s="41"/>
       <c r="E113" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F113" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,13 +13486,13 @@
       <c r="C114" s="39"/>
       <c r="D114" s="41"/>
       <c r="E114" s="42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F114" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13055,13 +13500,13 @@
       <c r="C115" s="39"/>
       <c r="D115" s="41"/>
       <c r="E115" s="42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13069,13 +13514,13 @@
       <c r="C116" s="39"/>
       <c r="D116" s="41"/>
       <c r="E116" s="42" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,13 +13528,13 @@
       <c r="C117" s="39"/>
       <c r="D117" s="41"/>
       <c r="E117" s="42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,7 +13542,7 @@
       <c r="C118" s="39"/>
       <c r="D118" s="41"/>
       <c r="E118" s="42" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
@@ -13118,150 +13563,150 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="48"/>
       <c r="C121" s="42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="48"/>
       <c r="C122" s="42" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="42" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F122" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="48"/>
       <c r="C123" s="42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F123" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="48"/>
       <c r="C124" s="42" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="42" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="48"/>
       <c r="C125" s="42" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="42" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="48"/>
       <c r="C126" s="42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D126" s="47"/>
       <c r="E126" s="42" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F126" s="42" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="48"/>
       <c r="C127" s="42" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D127" s="47"/>
       <c r="E127" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F127" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="48"/>
       <c r="C128" s="42" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D128" s="47"/>
       <c r="E128" s="42" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F128" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,22 +13725,22 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F130" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13303,13 +13748,13 @@
       <c r="C131" s="39"/>
       <c r="D131" s="41"/>
       <c r="E131" s="42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F131" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G131" s="42" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13317,13 +13762,13 @@
       <c r="C132" s="39"/>
       <c r="D132" s="41"/>
       <c r="E132" s="42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F132" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G132" s="50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,13 +13776,13 @@
       <c r="C133" s="39"/>
       <c r="D133" s="41"/>
       <c r="E133" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F133" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G133" s="50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13345,13 +13790,13 @@
       <c r="C134" s="39"/>
       <c r="D134" s="41"/>
       <c r="E134" s="42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F134" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G134" s="50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13359,13 +13804,13 @@
       <c r="C135" s="39"/>
       <c r="D135" s="41"/>
       <c r="E135" s="42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F135" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13373,13 +13818,13 @@
       <c r="C136" s="39"/>
       <c r="D136" s="41"/>
       <c r="E136" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F136" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13387,13 +13832,13 @@
       <c r="C137" s="39"/>
       <c r="D137" s="41"/>
       <c r="E137" s="42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F137" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,13 +13846,13 @@
       <c r="C138" s="39"/>
       <c r="D138" s="41"/>
       <c r="E138" s="42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13415,13 +13860,13 @@
       <c r="C139" s="39"/>
       <c r="D139" s="41"/>
       <c r="E139" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G139" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13429,13 +13874,13 @@
       <c r="C140" s="39"/>
       <c r="D140" s="41"/>
       <c r="E140" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13443,13 +13888,13 @@
       <c r="C141" s="39"/>
       <c r="D141" s="41"/>
       <c r="E141" s="42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13457,13 +13902,13 @@
       <c r="C142" s="39"/>
       <c r="D142" s="41"/>
       <c r="E142" s="42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13471,13 +13916,13 @@
       <c r="C143" s="39"/>
       <c r="D143" s="41"/>
       <c r="E143" s="42" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G143" s="42" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,13 +13930,13 @@
       <c r="C144" s="39"/>
       <c r="D144" s="41"/>
       <c r="E144" s="42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13499,7 +13944,7 @@
       <c r="C145" s="39"/>
       <c r="D145" s="41"/>
       <c r="E145" s="42" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
@@ -13520,86 +13965,86 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G147" s="42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="48"/>
       <c r="C148" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G148" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="48"/>
       <c r="C149" s="42" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F149" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="48"/>
       <c r="C150" s="42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D150" s="47"/>
       <c r="E150" s="42" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F150" s="42" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G150" s="42" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="48"/>
       <c r="C151" s="42" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="42" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F151" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G151" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,4 +14120,372 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>69</v>
+      </c>
+      <c r="H9" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="J9" s="25" t="n">
+        <v>80</v>
+      </c>
+      <c r="K9" s="25" t="n">
+        <v>41</v>
+      </c>
+      <c r="L9" s="26" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" s="26" t="n">
+        <v>60</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" s="27" t="n">
+        <v>124</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q9" s="27" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>66</v>
+      </c>
+      <c r="H10" s="24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I10" s="25" t="n">
+        <v>55</v>
+      </c>
+      <c r="J10" s="25" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K10" s="25" t="n">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="n">
+        <v>31</v>
+      </c>
+      <c r="M10" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" s="27" t="n">
+        <v>116</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>63</v>
+      </c>
+      <c r="H11" s="24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I11" s="25" t="n">
+        <v>52</v>
+      </c>
+      <c r="J11" s="25" t="n">
+        <v>67</v>
+      </c>
+      <c r="K11" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="L11" s="26" t="n">
+        <v>28</v>
+      </c>
+      <c r="M11" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" s="27" t="n">
+        <v>109</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="27" t="n">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="53" t="n">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="G12" s="53" t="n">
+        <v>95.4545454545455</v>
+      </c>
+      <c r="H12" s="53" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="54" t="n">
+        <v>94.5454545454546</v>
+      </c>
+      <c r="J12" s="54" t="n">
+        <v>93.7062937062937</v>
+      </c>
+      <c r="K12" s="54" t="n">
+        <v>94.8717948717949</v>
+      </c>
+      <c r="L12" s="55" t="n">
+        <v>90.3225806451613</v>
+      </c>
+      <c r="M12" s="55" t="n">
+        <v>90.5660377358491</v>
+      </c>
+      <c r="N12" s="55" t="n">
+        <v>100</v>
+      </c>
+      <c r="O12" s="56" t="n">
+        <v>93.9655172413793</v>
+      </c>
+      <c r="P12" s="56" t="n">
+        <v>93.4383202099738</v>
+      </c>
+      <c r="Q12" s="56" t="n">
+        <v>97.6608187134503</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="53" t="n">
+        <v>90.625</v>
+      </c>
+      <c r="G13" s="53" t="n">
+        <v>91.304347826087</v>
+      </c>
+      <c r="H13" s="53" t="n">
+        <v>93.1818181818182</v>
+      </c>
+      <c r="I13" s="54" t="n">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="J13" s="54" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="K13" s="54" t="n">
+        <v>90.2439024390244</v>
+      </c>
+      <c r="L13" s="55" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M13" s="55" t="n">
+        <v>80</v>
+      </c>
+      <c r="N13" s="55" t="n">
+        <v>83.8709677419355</v>
+      </c>
+      <c r="O13" s="56" t="n">
+        <v>87.9032258064516</v>
+      </c>
+      <c r="P13" s="56" t="n">
+        <v>85.1674641148325</v>
+      </c>
+      <c r="Q13" s="56" t="n">
+        <v>88.8297872340426</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="53" t="n">
+        <v>91.7721518987342</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>92.1052631578947</v>
+      </c>
+      <c r="H14" s="53" t="n">
+        <v>94.4700460829493</v>
+      </c>
+      <c r="I14" s="54" t="n">
+        <v>88.135593220339</v>
+      </c>
+      <c r="J14" s="54" t="n">
+        <v>85.5683269476373</v>
+      </c>
+      <c r="K14" s="54" t="n">
+        <v>91.1330049261084</v>
+      </c>
+      <c r="L14" s="55" t="n">
+        <v>88.0503144654088</v>
+      </c>
+      <c r="M14" s="55" t="n">
+        <v>81.9112627986348</v>
+      </c>
+      <c r="N14" s="55" t="n">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="O14" s="56" t="n">
+        <v>89.0522875816994</v>
+      </c>
+      <c r="P14" s="56" t="n">
+        <v>86.7023867510959</v>
+      </c>
+      <c r="Q14" s="56" t="n">
+        <v>90.465872156013</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>